--- a/config_7.20/xiaoxiaole_card_server.xlsx
+++ b/config_7.20/xiaoxiaole_card_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -115,12 +115,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,7 +132,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,68 +144,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +181,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -228,6 +228,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -237,50 +245,35 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,31 +288,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,151 +456,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +473,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,17 +506,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,17 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -563,21 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -586,6 +562,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -594,10 +581,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +593,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -755,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,8 +1066,8 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1134,10 +1121,10 @@
         <v>10</v>
       </c>
       <c r="E2" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1">
         <v>5000</v>
@@ -1160,10 +1147,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1">
         <v>5000</v>
@@ -1186,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <v>5000</v>
@@ -1212,10 +1199,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1">
         <v>5000</v>
@@ -1238,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1">
         <v>10000</v>
@@ -1264,10 +1251,10 @@
         <v>12</v>
       </c>
       <c r="E7" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
         <v>10000</v>
@@ -1290,10 +1277,10 @@
         <v>14</v>
       </c>
       <c r="E8" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>10000</v>
@@ -1316,10 +1303,10 @@
         <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1">
         <v>10000</v>
@@ -1342,10 +1329,10 @@
         <v>10</v>
       </c>
       <c r="E10" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1">
         <v>30000</v>
@@ -1368,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="E11" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1">
         <v>30000</v>
@@ -1394,10 +1381,10 @@
         <v>14</v>
       </c>
       <c r="E12" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1">
         <v>30000</v>
@@ -1420,10 +1407,10 @@
         <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="F13" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="G13" s="1">
         <v>30000</v>
@@ -1444,7 +1431,7 @@
   <sheetPr/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
